--- a/config/已实现用例.xlsx
+++ b/config/已实现用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="211">
   <si>
     <t>test_eyt_01_base_info</t>
   </si>
@@ -274,181 +274,181 @@
   </si>
   <si>
     <t>权证请款-原件请款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>财务办理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>财务分公司经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>财务风控经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>财务会计审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>财务经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>资金主管募资审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>车位贷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基本信息录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>借款人信息录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物业信息录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>申请件录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>获取申请件编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询待处理任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>流程监控</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高级经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>合同打印</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>合规审查</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>循环贷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>过桥通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>资金主管审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>E押通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基本信息录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>借款人信息录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物业信息录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>申请件录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>获取申请件编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询待处理任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>流程监控</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高级经理审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>合同打印</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>合规审查</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>进件场景</t>
   </si>
   <si>
     <t>test_01_one_borrower</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_03_two_borrower</t>
   </si>
   <si>
     <t>test_gqt_04_applydata</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>单借款人录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>录入两个借款人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>风控回退/拒绝/取消场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">test_01_branch_director_fallback      </t>
@@ -515,180 +515,275 @@
   </si>
   <si>
     <t>主管回退到申请录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理回退到申请件录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域经理回退到申请件录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高级经理回退到申请件录入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>风控逐级回退</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>回退</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域经理取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高级经理取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管拒绝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管拒绝，并复议通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司主管拒绝，并复议不通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理拒绝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理拒绝，并复议通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分公司经理拒绝，并复议不通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域拒绝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域拒绝，并复议通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域拒绝，并复议不通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高级经理拒绝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高级经理拒绝，并复议通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高级经理拒绝，并复议不通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拒绝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用例标号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用例描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>合同签约</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_one_person_sign</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>单人签约</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>两人签约</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三人签约</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_two_person_sign</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_03_three_person_sign</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>特批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_01_region_special_approval</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域李伟波特批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_02_manage_special_approval</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高级审批经理特批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_03_risk_director_special_approval</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>风控总监特批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人签约</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_06_6Person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_07_7Person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_08_10Person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_09_20Person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人合同签约</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二人到合同签约</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1主借人，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19拆借人</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1主借人，3拆借人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1主借人，4拆借人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1主借人，5拆借人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1主借人，6拆借人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1主借人，7拆借人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1主借人，2拆借人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_01_1person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_02_2Person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_03_3Person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_04_4Person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_05_5Person_contract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -760,24 +855,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2089,13 +2188,90 @@
         <v>191</v>
       </c>
     </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B127" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B128" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B131" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B135" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A96:A100"/>
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="A105:A116"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2109,7 +2285,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2122,7 +2298,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/已实现用例.xlsx
+++ b/config/已实现用例.xlsx
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
